--- a/sampledatafoodsales.xlsx
+++ b/sampledatafoodsales.xlsx
@@ -434,7 +434,7 @@
         <v>Lbr Cost</v>
       </c>
       <c r="K1" t="str">
-        <v>Fohvd Cost</v>
+        <v>Fovhd Cost</v>
       </c>
       <c r="L1" t="str">
         <v>Vovhd Cost</v>
@@ -513,7 +513,7 @@
         <v>STOCK</v>
       </c>
       <c r="F3" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G3" t="str">
         <v>MMR</v>
@@ -560,7 +560,7 @@
         <v>STOCK</v>
       </c>
       <c r="F4" t="str">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G4" t="str">
         <v>MMR</v>

--- a/sampledatafoodsales.xlsx
+++ b/sampledatafoodsales.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:R57"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -422,33 +422,39 @@
         <v>Qty on hand</v>
       </c>
       <c r="G1" t="str">
+        <v>Expired Date</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Vendor Lot</v>
+      </c>
+      <c r="I1" t="str">
         <v>Reason Code</v>
       </c>
-      <c r="H1" t="str">
+      <c r="J1" t="str">
         <v>Perm Flag</v>
       </c>
-      <c r="I1" t="str">
+      <c r="K1" t="str">
         <v>Matl Cost</v>
       </c>
-      <c r="J1" t="str">
+      <c r="L1" t="str">
         <v>Lbr Cost</v>
       </c>
-      <c r="K1" t="str">
+      <c r="M1" t="str">
         <v>Fovhd Cost</v>
       </c>
-      <c r="L1" t="str">
+      <c r="N1" t="str">
         <v>Vovhd Cost</v>
       </c>
-      <c r="M1" t="str">
+      <c r="O1" t="str">
         <v>Out Cost</v>
       </c>
-      <c r="N1" t="str">
+      <c r="P1" t="str">
         <v>Document Num</v>
       </c>
-      <c r="O1" t="str">
+      <c r="Q1" t="str">
         <v>Importdoc Id</v>
       </c>
-      <c r="P1" t="str">
+      <c r="R1" t="str">
         <v>Notes</v>
       </c>
     </row>
@@ -468,17 +474,11 @@
       <c r="F2" t="str">
         <v>10</v>
       </c>
-      <c r="G2" t="str">
-        <v>MMR</v>
-      </c>
-      <c r="H2" t="str">
-        <v>1</v>
-      </c>
       <c r="I2" t="str">
-        <v/>
+        <v>MMR</v>
       </c>
       <c r="J2" t="str">
-        <v/>
+        <v>1</v>
       </c>
       <c r="K2" t="str">
         <v/>
@@ -496,6 +496,12 @@
         <v/>
       </c>
       <c r="P2" t="str">
+        <v/>
+      </c>
+      <c r="Q2" t="str">
+        <v/>
+      </c>
+      <c r="R2" t="str">
         <v/>
       </c>
     </row>
@@ -515,17 +521,11 @@
       <c r="F3" t="str">
         <v>2</v>
       </c>
-      <c r="G3" t="str">
-        <v>MMR</v>
-      </c>
-      <c r="H3" t="str">
-        <v>1</v>
-      </c>
       <c r="I3" t="str">
-        <v/>
+        <v>MMR</v>
       </c>
       <c r="J3" t="str">
-        <v/>
+        <v>1</v>
       </c>
       <c r="K3" t="str">
         <v/>
@@ -543,6 +543,12 @@
         <v/>
       </c>
       <c r="P3" t="str">
+        <v/>
+      </c>
+      <c r="Q3" t="str">
+        <v/>
+      </c>
+      <c r="R3" t="str">
         <v/>
       </c>
     </row>
@@ -562,17 +568,11 @@
       <c r="F4" t="str">
         <v>5</v>
       </c>
-      <c r="G4" t="str">
-        <v>MMR</v>
-      </c>
-      <c r="H4" t="str">
-        <v>1</v>
-      </c>
       <c r="I4" t="str">
-        <v/>
+        <v>MMR</v>
       </c>
       <c r="J4" t="str">
-        <v/>
+        <v>1</v>
       </c>
       <c r="K4" t="str">
         <v/>
@@ -590,6 +590,12 @@
         <v/>
       </c>
       <c r="P4" t="str">
+        <v/>
+      </c>
+      <c r="Q4" t="str">
+        <v/>
+      </c>
+      <c r="R4" t="str">
         <v/>
       </c>
     </row>
@@ -609,17 +615,11 @@
       <c r="F5" t="str">
         <v>3</v>
       </c>
-      <c r="G5" t="str">
-        <v>MMR</v>
-      </c>
-      <c r="H5" t="str">
-        <v>1</v>
-      </c>
       <c r="I5" t="str">
-        <v/>
+        <v>MMR</v>
       </c>
       <c r="J5" t="str">
-        <v/>
+        <v>1</v>
       </c>
       <c r="K5" t="str">
         <v/>
@@ -637,6 +637,12 @@
         <v/>
       </c>
       <c r="P5" t="str">
+        <v/>
+      </c>
+      <c r="Q5" t="str">
+        <v/>
+      </c>
+      <c r="R5" t="str">
         <v/>
       </c>
     </row>
@@ -656,17 +662,11 @@
       <c r="F6" t="str">
         <v>5</v>
       </c>
-      <c r="G6" t="str">
-        <v>MMR</v>
-      </c>
-      <c r="H6" t="str">
-        <v>1</v>
-      </c>
       <c r="I6" t="str">
-        <v/>
+        <v>MMR</v>
       </c>
       <c r="J6" t="str">
-        <v/>
+        <v>1</v>
       </c>
       <c r="K6" t="str">
         <v/>
@@ -684,6 +684,12 @@
         <v/>
       </c>
       <c r="P6" t="str">
+        <v/>
+      </c>
+      <c r="Q6" t="str">
+        <v/>
+      </c>
+      <c r="R6" t="str">
         <v/>
       </c>
     </row>
@@ -703,17 +709,11 @@
       <c r="F7" t="str">
         <v>7</v>
       </c>
-      <c r="G7" t="str">
-        <v>MMR</v>
-      </c>
-      <c r="H7" t="str">
-        <v>1</v>
-      </c>
       <c r="I7" t="str">
-        <v/>
+        <v>MMR</v>
       </c>
       <c r="J7" t="str">
-        <v/>
+        <v>1</v>
       </c>
       <c r="K7" t="str">
         <v/>
@@ -732,11 +732,1167 @@
       </c>
       <c r="P7" t="str">
         <v/>
+      </c>
+      <c r="Q7" t="str">
+        <v/>
+      </c>
+      <c r="R7" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>2022-11-23</v>
+      </c>
+      <c r="B8" t="str">
+        <v>30F</v>
+      </c>
+      <c r="C8" t="str">
+        <v>MAIN</v>
+      </c>
+      <c r="D8" t="str">
+        <v>STOCK</v>
+      </c>
+      <c r="F8" t="str">
+        <v>10</v>
+      </c>
+      <c r="I8" t="str">
+        <v>MMR</v>
+      </c>
+      <c r="J8" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>2022-11-23</v>
+      </c>
+      <c r="B9" t="str">
+        <v>30Q</v>
+      </c>
+      <c r="C9" t="str">
+        <v>MAIN</v>
+      </c>
+      <c r="D9" t="str">
+        <v>STOCK</v>
+      </c>
+      <c r="F9" t="str">
+        <v>2</v>
+      </c>
+      <c r="I9" t="str">
+        <v>MMR</v>
+      </c>
+      <c r="J9" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>2022-11-23</v>
+      </c>
+      <c r="B10" t="str">
+        <v>32R</v>
+      </c>
+      <c r="C10" t="str">
+        <v>MAIN</v>
+      </c>
+      <c r="D10" t="str">
+        <v>STOCK</v>
+      </c>
+      <c r="F10" t="str">
+        <v>5</v>
+      </c>
+      <c r="I10" t="str">
+        <v>MMR</v>
+      </c>
+      <c r="J10" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>2022-11-23</v>
+      </c>
+      <c r="B11" t="str">
+        <v>33SL</v>
+      </c>
+      <c r="C11" t="str">
+        <v>MAIN</v>
+      </c>
+      <c r="D11" t="str">
+        <v>STOCK</v>
+      </c>
+      <c r="F11" t="str">
+        <v>3</v>
+      </c>
+      <c r="I11" t="str">
+        <v>MMR</v>
+      </c>
+      <c r="J11" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>2022-11-23</v>
+      </c>
+      <c r="B12" t="str">
+        <v>40102000-00-RESN</v>
+      </c>
+      <c r="C12" t="str">
+        <v>MAIN</v>
+      </c>
+      <c r="D12" t="str">
+        <v>STOCK</v>
+      </c>
+      <c r="F12" t="str">
+        <v>5</v>
+      </c>
+      <c r="I12" t="str">
+        <v>MMR</v>
+      </c>
+      <c r="J12" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>2022-11-23</v>
+      </c>
+      <c r="B13" t="str">
+        <v>40301800-00-SCOR</v>
+      </c>
+      <c r="C13" t="str">
+        <v>MAIN</v>
+      </c>
+      <c r="D13" t="str">
+        <v>STOCK</v>
+      </c>
+      <c r="F13" t="str">
+        <v>7</v>
+      </c>
+      <c r="I13" t="str">
+        <v>MMR</v>
+      </c>
+      <c r="J13" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>2022-11-23</v>
+      </c>
+      <c r="B14" t="str">
+        <v>30F</v>
+      </c>
+      <c r="C14" t="str">
+        <v>MAIN</v>
+      </c>
+      <c r="D14" t="str">
+        <v>STOCK</v>
+      </c>
+      <c r="F14" t="str">
+        <v>10</v>
+      </c>
+      <c r="I14" t="str">
+        <v>MMR</v>
+      </c>
+      <c r="J14" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>2022-11-23</v>
+      </c>
+      <c r="B15" t="str">
+        <v>30Q</v>
+      </c>
+      <c r="C15" t="str">
+        <v>MAIN</v>
+      </c>
+      <c r="D15" t="str">
+        <v>STOCK</v>
+      </c>
+      <c r="F15" t="str">
+        <v>2</v>
+      </c>
+      <c r="I15" t="str">
+        <v>MMR</v>
+      </c>
+      <c r="J15" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>2022-11-23</v>
+      </c>
+      <c r="B16" t="str">
+        <v>32R</v>
+      </c>
+      <c r="C16" t="str">
+        <v>MAIN</v>
+      </c>
+      <c r="D16" t="str">
+        <v>STOCK</v>
+      </c>
+      <c r="F16" t="str">
+        <v>5</v>
+      </c>
+      <c r="I16" t="str">
+        <v>MMR</v>
+      </c>
+      <c r="J16" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>2022-11-23</v>
+      </c>
+      <c r="B17" t="str">
+        <v>33SL</v>
+      </c>
+      <c r="C17" t="str">
+        <v>MAIN</v>
+      </c>
+      <c r="D17" t="str">
+        <v>STOCK</v>
+      </c>
+      <c r="F17" t="str">
+        <v>3</v>
+      </c>
+      <c r="I17" t="str">
+        <v>MMR</v>
+      </c>
+      <c r="J17" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>2022-11-23</v>
+      </c>
+      <c r="B18" t="str">
+        <v>40102000-00-RESN</v>
+      </c>
+      <c r="C18" t="str">
+        <v>MAIN</v>
+      </c>
+      <c r="D18" t="str">
+        <v>STOCK</v>
+      </c>
+      <c r="F18" t="str">
+        <v>5</v>
+      </c>
+      <c r="I18" t="str">
+        <v>MMR</v>
+      </c>
+      <c r="J18" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>2022-11-23</v>
+      </c>
+      <c r="B19" t="str">
+        <v>40301800-00-SCOR</v>
+      </c>
+      <c r="C19" t="str">
+        <v>MAIN</v>
+      </c>
+      <c r="D19" t="str">
+        <v>STOCK</v>
+      </c>
+      <c r="F19" t="str">
+        <v>7</v>
+      </c>
+      <c r="I19" t="str">
+        <v>MMR</v>
+      </c>
+      <c r="J19" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>2022-11-23</v>
+      </c>
+      <c r="B20" t="str">
+        <v>30F</v>
+      </c>
+      <c r="C20" t="str">
+        <v>MAIN</v>
+      </c>
+      <c r="D20" t="str">
+        <v>STOCK</v>
+      </c>
+      <c r="F20" t="str">
+        <v>10</v>
+      </c>
+      <c r="I20" t="str">
+        <v>MMR</v>
+      </c>
+      <c r="J20" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>2022-11-23</v>
+      </c>
+      <c r="B21" t="str">
+        <v>30Q</v>
+      </c>
+      <c r="C21" t="str">
+        <v>MAIN</v>
+      </c>
+      <c r="D21" t="str">
+        <v>STOCK</v>
+      </c>
+      <c r="F21" t="str">
+        <v>2</v>
+      </c>
+      <c r="I21" t="str">
+        <v>MMR</v>
+      </c>
+      <c r="J21" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>2022-11-23</v>
+      </c>
+      <c r="B22" t="str">
+        <v>32R</v>
+      </c>
+      <c r="C22" t="str">
+        <v>MAIN</v>
+      </c>
+      <c r="D22" t="str">
+        <v>STOCK</v>
+      </c>
+      <c r="F22" t="str">
+        <v>5</v>
+      </c>
+      <c r="I22" t="str">
+        <v>MMR</v>
+      </c>
+      <c r="J22" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>2022-11-23</v>
+      </c>
+      <c r="B23" t="str">
+        <v>33SL</v>
+      </c>
+      <c r="C23" t="str">
+        <v>MAIN</v>
+      </c>
+      <c r="D23" t="str">
+        <v>STOCK</v>
+      </c>
+      <c r="F23" t="str">
+        <v>3</v>
+      </c>
+      <c r="I23" t="str">
+        <v>MMR</v>
+      </c>
+      <c r="J23" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>2022-11-23</v>
+      </c>
+      <c r="B24" t="str">
+        <v>40102000-00-RESN</v>
+      </c>
+      <c r="C24" t="str">
+        <v>MAIN</v>
+      </c>
+      <c r="D24" t="str">
+        <v>STOCK</v>
+      </c>
+      <c r="F24" t="str">
+        <v>5</v>
+      </c>
+      <c r="I24" t="str">
+        <v>MMR</v>
+      </c>
+      <c r="J24" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>2022-11-23</v>
+      </c>
+      <c r="B25" t="str">
+        <v>40301800-00-SCOR</v>
+      </c>
+      <c r="C25" t="str">
+        <v>MAIN</v>
+      </c>
+      <c r="D25" t="str">
+        <v>STOCK</v>
+      </c>
+      <c r="F25" t="str">
+        <v>7</v>
+      </c>
+      <c r="I25" t="str">
+        <v>MMR</v>
+      </c>
+      <c r="J25" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>2022-11-23</v>
+      </c>
+      <c r="B26" t="str">
+        <v>30F</v>
+      </c>
+      <c r="C26" t="str">
+        <v>MAIN</v>
+      </c>
+      <c r="D26" t="str">
+        <v>STOCK</v>
+      </c>
+      <c r="F26" t="str">
+        <v>10</v>
+      </c>
+      <c r="I26" t="str">
+        <v>MMR</v>
+      </c>
+      <c r="J26" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>2022-11-23</v>
+      </c>
+      <c r="B27" t="str">
+        <v>30Q</v>
+      </c>
+      <c r="C27" t="str">
+        <v>MAIN</v>
+      </c>
+      <c r="D27" t="str">
+        <v>STOCK</v>
+      </c>
+      <c r="F27" t="str">
+        <v>2</v>
+      </c>
+      <c r="I27" t="str">
+        <v>MMR</v>
+      </c>
+      <c r="J27" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>2022-11-23</v>
+      </c>
+      <c r="B28" t="str">
+        <v>32R</v>
+      </c>
+      <c r="C28" t="str">
+        <v>MAIN</v>
+      </c>
+      <c r="D28" t="str">
+        <v>STOCK</v>
+      </c>
+      <c r="F28" t="str">
+        <v>5</v>
+      </c>
+      <c r="I28" t="str">
+        <v>MMR</v>
+      </c>
+      <c r="J28" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>2022-11-23</v>
+      </c>
+      <c r="B29" t="str">
+        <v>33SL</v>
+      </c>
+      <c r="C29" t="str">
+        <v>MAIN</v>
+      </c>
+      <c r="D29" t="str">
+        <v>STOCK</v>
+      </c>
+      <c r="F29" t="str">
+        <v>3</v>
+      </c>
+      <c r="I29" t="str">
+        <v>MMR</v>
+      </c>
+      <c r="J29" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>2022-11-23</v>
+      </c>
+      <c r="B30" t="str">
+        <v>40102000-00-RESN</v>
+      </c>
+      <c r="C30" t="str">
+        <v>MAIN</v>
+      </c>
+      <c r="D30" t="str">
+        <v>STOCK</v>
+      </c>
+      <c r="F30" t="str">
+        <v>5</v>
+      </c>
+      <c r="I30" t="str">
+        <v>MMR</v>
+      </c>
+      <c r="J30" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>2022-11-23</v>
+      </c>
+      <c r="B31" t="str">
+        <v>40301800-00-SCOR</v>
+      </c>
+      <c r="C31" t="str">
+        <v>MAIN</v>
+      </c>
+      <c r="D31" t="str">
+        <v>STOCK</v>
+      </c>
+      <c r="F31" t="str">
+        <v>7</v>
+      </c>
+      <c r="I31" t="str">
+        <v>MMR</v>
+      </c>
+      <c r="J31" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>2022-11-23</v>
+      </c>
+      <c r="B32" t="str">
+        <v>30F</v>
+      </c>
+      <c r="C32" t="str">
+        <v>MAIN</v>
+      </c>
+      <c r="D32" t="str">
+        <v>STOCK</v>
+      </c>
+      <c r="F32" t="str">
+        <v>10</v>
+      </c>
+      <c r="I32" t="str">
+        <v>MMR</v>
+      </c>
+      <c r="J32" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>2022-11-23</v>
+      </c>
+      <c r="B33" t="str">
+        <v>30Q</v>
+      </c>
+      <c r="C33" t="str">
+        <v>MAIN</v>
+      </c>
+      <c r="D33" t="str">
+        <v>STOCK</v>
+      </c>
+      <c r="F33" t="str">
+        <v>2</v>
+      </c>
+      <c r="I33" t="str">
+        <v>MMR</v>
+      </c>
+      <c r="J33" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>2022-11-23</v>
+      </c>
+      <c r="B34" t="str">
+        <v>32R</v>
+      </c>
+      <c r="C34" t="str">
+        <v>MAIN</v>
+      </c>
+      <c r="D34" t="str">
+        <v>STOCK</v>
+      </c>
+      <c r="F34" t="str">
+        <v>5</v>
+      </c>
+      <c r="I34" t="str">
+        <v>MMR</v>
+      </c>
+      <c r="J34" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>2022-11-23</v>
+      </c>
+      <c r="B35" t="str">
+        <v>33SL</v>
+      </c>
+      <c r="C35" t="str">
+        <v>MAIN</v>
+      </c>
+      <c r="D35" t="str">
+        <v>STOCK</v>
+      </c>
+      <c r="F35" t="str">
+        <v>3</v>
+      </c>
+      <c r="I35" t="str">
+        <v>MMR</v>
+      </c>
+      <c r="J35" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>2022-11-23</v>
+      </c>
+      <c r="B36" t="str">
+        <v>40102000-00-RESN</v>
+      </c>
+      <c r="C36" t="str">
+        <v>MAIN</v>
+      </c>
+      <c r="D36" t="str">
+        <v>STOCK</v>
+      </c>
+      <c r="F36" t="str">
+        <v>5</v>
+      </c>
+      <c r="I36" t="str">
+        <v>MMR</v>
+      </c>
+      <c r="J36" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>2022-11-23</v>
+      </c>
+      <c r="B37" t="str">
+        <v>40301800-00-SCOR</v>
+      </c>
+      <c r="C37" t="str">
+        <v>MAIN</v>
+      </c>
+      <c r="D37" t="str">
+        <v>STOCK</v>
+      </c>
+      <c r="F37" t="str">
+        <v>7</v>
+      </c>
+      <c r="I37" t="str">
+        <v>MMR</v>
+      </c>
+      <c r="J37" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>2022-11-23</v>
+      </c>
+      <c r="B38" t="str">
+        <v>30F</v>
+      </c>
+      <c r="C38" t="str">
+        <v>MAIN</v>
+      </c>
+      <c r="D38" t="str">
+        <v>STOCK</v>
+      </c>
+      <c r="F38" t="str">
+        <v>10</v>
+      </c>
+      <c r="I38" t="str">
+        <v>MMR</v>
+      </c>
+      <c r="J38" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>2022-11-23</v>
+      </c>
+      <c r="B39" t="str">
+        <v>30Q</v>
+      </c>
+      <c r="C39" t="str">
+        <v>MAIN</v>
+      </c>
+      <c r="D39" t="str">
+        <v>STOCK</v>
+      </c>
+      <c r="F39" t="str">
+        <v>2</v>
+      </c>
+      <c r="I39" t="str">
+        <v>MMR</v>
+      </c>
+      <c r="J39" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>2022-11-23</v>
+      </c>
+      <c r="B40" t="str">
+        <v>32R</v>
+      </c>
+      <c r="C40" t="str">
+        <v>MAIN</v>
+      </c>
+      <c r="D40" t="str">
+        <v>STOCK</v>
+      </c>
+      <c r="F40" t="str">
+        <v>5</v>
+      </c>
+      <c r="I40" t="str">
+        <v>MMR</v>
+      </c>
+      <c r="J40" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>2022-11-23</v>
+      </c>
+      <c r="B41" t="str">
+        <v>33SL</v>
+      </c>
+      <c r="C41" t="str">
+        <v>MAIN</v>
+      </c>
+      <c r="D41" t="str">
+        <v>STOCK</v>
+      </c>
+      <c r="F41" t="str">
+        <v>3</v>
+      </c>
+      <c r="I41" t="str">
+        <v>MMR</v>
+      </c>
+      <c r="J41" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>2022-11-23</v>
+      </c>
+      <c r="B42" t="str">
+        <v>40102000-00-RESN</v>
+      </c>
+      <c r="C42" t="str">
+        <v>MAIN</v>
+      </c>
+      <c r="D42" t="str">
+        <v>STOCK</v>
+      </c>
+      <c r="F42" t="str">
+        <v>5</v>
+      </c>
+      <c r="I42" t="str">
+        <v>MMR</v>
+      </c>
+      <c r="J42" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>2022-11-23</v>
+      </c>
+      <c r="B43" t="str">
+        <v>40301800-00-SCOR</v>
+      </c>
+      <c r="C43" t="str">
+        <v>MAIN</v>
+      </c>
+      <c r="D43" t="str">
+        <v>STOCK</v>
+      </c>
+      <c r="F43" t="str">
+        <v>7</v>
+      </c>
+      <c r="I43" t="str">
+        <v>MMR</v>
+      </c>
+      <c r="J43" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>2022-11-23</v>
+      </c>
+      <c r="B44" t="str">
+        <v>30F</v>
+      </c>
+      <c r="C44" t="str">
+        <v>MAIN</v>
+      </c>
+      <c r="D44" t="str">
+        <v>STOCK</v>
+      </c>
+      <c r="F44" t="str">
+        <v>10</v>
+      </c>
+      <c r="I44" t="str">
+        <v>MMR</v>
+      </c>
+      <c r="J44" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>2022-11-23</v>
+      </c>
+      <c r="B45" t="str">
+        <v>30Q</v>
+      </c>
+      <c r="C45" t="str">
+        <v>MAIN</v>
+      </c>
+      <c r="D45" t="str">
+        <v>STOCK</v>
+      </c>
+      <c r="F45" t="str">
+        <v>2</v>
+      </c>
+      <c r="I45" t="str">
+        <v>MMR</v>
+      </c>
+      <c r="J45" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>2022-11-23</v>
+      </c>
+      <c r="B46" t="str">
+        <v>32R</v>
+      </c>
+      <c r="C46" t="str">
+        <v>MAIN</v>
+      </c>
+      <c r="D46" t="str">
+        <v>STOCK</v>
+      </c>
+      <c r="F46" t="str">
+        <v>5</v>
+      </c>
+      <c r="I46" t="str">
+        <v>MMR</v>
+      </c>
+      <c r="J46" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>2022-11-23</v>
+      </c>
+      <c r="B47" t="str">
+        <v>33SL</v>
+      </c>
+      <c r="C47" t="str">
+        <v>MAIN</v>
+      </c>
+      <c r="D47" t="str">
+        <v>STOCK</v>
+      </c>
+      <c r="F47" t="str">
+        <v>3</v>
+      </c>
+      <c r="I47" t="str">
+        <v>MMR</v>
+      </c>
+      <c r="J47" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>2022-11-23</v>
+      </c>
+      <c r="B48" t="str">
+        <v>40102000-00-RESN</v>
+      </c>
+      <c r="C48" t="str">
+        <v>MAIN</v>
+      </c>
+      <c r="D48" t="str">
+        <v>STOCK</v>
+      </c>
+      <c r="F48" t="str">
+        <v>5</v>
+      </c>
+      <c r="I48" t="str">
+        <v>MMR</v>
+      </c>
+      <c r="J48" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>2022-11-23</v>
+      </c>
+      <c r="B49" t="str">
+        <v>40301800-00-SCOR</v>
+      </c>
+      <c r="C49" t="str">
+        <v>MAIN</v>
+      </c>
+      <c r="D49" t="str">
+        <v>STOCK</v>
+      </c>
+      <c r="F49" t="str">
+        <v>7</v>
+      </c>
+      <c r="I49" t="str">
+        <v>MMR</v>
+      </c>
+      <c r="J49" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>2022-11-23</v>
+      </c>
+      <c r="B50" t="str">
+        <v>30F</v>
+      </c>
+      <c r="C50" t="str">
+        <v>MAIN</v>
+      </c>
+      <c r="D50" t="str">
+        <v>STOCK</v>
+      </c>
+      <c r="F50" t="str">
+        <v>10</v>
+      </c>
+      <c r="I50" t="str">
+        <v>MMR</v>
+      </c>
+      <c r="J50" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>2022-11-23</v>
+      </c>
+      <c r="B51" t="str">
+        <v>30Q</v>
+      </c>
+      <c r="C51" t="str">
+        <v>MAIN</v>
+      </c>
+      <c r="D51" t="str">
+        <v>STOCK</v>
+      </c>
+      <c r="F51" t="str">
+        <v>2</v>
+      </c>
+      <c r="I51" t="str">
+        <v>MMR</v>
+      </c>
+      <c r="J51" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>2022-11-23</v>
+      </c>
+      <c r="B52" t="str">
+        <v>32R</v>
+      </c>
+      <c r="C52" t="str">
+        <v>MAIN</v>
+      </c>
+      <c r="D52" t="str">
+        <v>STOCK</v>
+      </c>
+      <c r="F52" t="str">
+        <v>5</v>
+      </c>
+      <c r="I52" t="str">
+        <v>MMR</v>
+      </c>
+      <c r="J52" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>2022-11-23</v>
+      </c>
+      <c r="B53" t="str">
+        <v>33SL</v>
+      </c>
+      <c r="C53" t="str">
+        <v>MAIN</v>
+      </c>
+      <c r="D53" t="str">
+        <v>STOCK</v>
+      </c>
+      <c r="F53" t="str">
+        <v>3</v>
+      </c>
+      <c r="I53" t="str">
+        <v>MMR</v>
+      </c>
+      <c r="J53" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>2022-11-23</v>
+      </c>
+      <c r="B54" t="str">
+        <v>40102000-00-RESN</v>
+      </c>
+      <c r="C54" t="str">
+        <v>MAIN</v>
+      </c>
+      <c r="D54" t="str">
+        <v>STOCK</v>
+      </c>
+      <c r="F54" t="str">
+        <v>5</v>
+      </c>
+      <c r="I54" t="str">
+        <v>MMR</v>
+      </c>
+      <c r="J54" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>2022-11-23</v>
+      </c>
+      <c r="B55" t="str">
+        <v>40301800-00-SCOR</v>
+      </c>
+      <c r="C55" t="str">
+        <v>MAIN</v>
+      </c>
+      <c r="D55" t="str">
+        <v>STOCK</v>
+      </c>
+      <c r="F55" t="str">
+        <v>7</v>
+      </c>
+      <c r="I55" t="str">
+        <v>MMR</v>
+      </c>
+      <c r="J55" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>2022-11-23</v>
+      </c>
+      <c r="B56" t="str">
+        <v>30F</v>
+      </c>
+      <c r="C56" t="str">
+        <v>MAIN</v>
+      </c>
+      <c r="D56" t="str">
+        <v>STOCK</v>
+      </c>
+      <c r="F56" t="str">
+        <v>10</v>
+      </c>
+      <c r="I56" t="str">
+        <v>MMR</v>
+      </c>
+      <c r="J56" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>2022-11-23</v>
+      </c>
+      <c r="B57" t="str">
+        <v>30Q</v>
+      </c>
+      <c r="C57" t="str">
+        <v>MAIN</v>
+      </c>
+      <c r="D57" t="str">
+        <v>STOCK</v>
+      </c>
+      <c r="F57" t="str">
+        <v>2</v>
+      </c>
+      <c r="I57" t="str">
+        <v>MMR</v>
+      </c>
+      <c r="J57" t="str">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:R57"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/sampledatafoodsales.xlsx
+++ b/sampledatafoodsales.xlsx
@@ -478,13 +478,13 @@
         <v>10</v>
       </c>
       <c r="I2" t="str">
-        <v>MMR</v>
+        <v>xxx</v>
       </c>
       <c r="J2" t="str">
         <v>1</v>
       </c>
       <c r="K2" t="str">
-        <v/>
+        <v>1</v>
       </c>
       <c r="L2" t="str">
         <v/>
@@ -510,7 +510,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2022-11-23</v>
+        <v>2022-11-24</v>
       </c>
       <c r="B3" t="str">
         <v>30Q</v>
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="K3" t="str">
-        <v/>
+        <v>2</v>
       </c>
       <c r="L3" t="str">
         <v/>
@@ -557,7 +557,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2022-11-23</v>
+        <v>2022-11-25</v>
       </c>
       <c r="B4" t="str">
         <v>32R</v>
@@ -578,7 +578,7 @@
         <v>1</v>
       </c>
       <c r="K4" t="str">
-        <v/>
+        <v>3</v>
       </c>
       <c r="L4" t="str">
         <v/>
@@ -604,7 +604,7 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2022-11-23</v>
+        <v>2022-11-26</v>
       </c>
       <c r="B5" t="str">
         <v>33SL</v>
@@ -625,7 +625,7 @@
         <v>1</v>
       </c>
       <c r="K5" t="str">
-        <v/>
+        <v>4</v>
       </c>
       <c r="L5" t="str">
         <v/>
@@ -651,7 +651,7 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2022-11-23</v>
+        <v>2022-11-27</v>
       </c>
       <c r="B6" t="str">
         <v>40102000-00-RESN</v>
@@ -672,7 +672,7 @@
         <v>1</v>
       </c>
       <c r="K6" t="str">
-        <v/>
+        <v>5</v>
       </c>
       <c r="L6" t="str">
         <v/>
